--- a/ms excel/ass/11.xlsx
+++ b/ms excel/ass/11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WDPF PC-07\Desktop\isdb\cf\ms excel\ass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\html-70\html-70\ms excel\ass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AFDEE0-B1B8-485B-B112-7452DF51D443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A0FA4B-DCAD-4282-AB61-6DE9D9D10D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <dimension ref="D2:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="I3" sqref="I3:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +489,7 @@
         <v>800000</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>IF(H3&gt;500000,"EXPENCIVE","LETS BUY IT")</f>
+        <f>IF(H3&gt;=500000,"EXPENCIVE","LETS BUY IT")</f>
         <v>EXPENCIVE</v>
       </c>
     </row>
@@ -511,7 +511,7 @@
         <v>300000</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f t="shared" ref="I4:I12" si="0">IF(H4&gt;500000,"EXPENCIVE","LETS BUY IT")</f>
+        <f t="shared" ref="I4:I12" si="0">IF(H4&gt;=500000,"EXPENCIVE","LETS BUY IT")</f>
         <v>LETS BUY IT</v>
       </c>
     </row>
